--- a/REGULAR/OJT/AUDITOR, AILEEN.xlsx
+++ b/REGULAR/OJT/AUDITOR, AILEEN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23D4142-6CFF-4841-AB41-86177A8081F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="211">
   <si>
     <t>PERIOD</t>
   </si>
@@ -673,7 +672,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1533,7 +1532,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1576,7 +1575,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1639,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1699,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1766,7 +1765,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1829,7 +1828,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1926,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1985,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2051,7 +2050,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2093,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2169,7 +2168,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2355,7 +2354,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2421,7 +2420,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2478,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2544,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2600,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2676,7 +2675,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2719,7 +2718,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2785,7 +2784,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2841,7 +2840,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2939,7 +2938,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3002,7 +3001,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3050,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3068,25 +3067,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K258" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K258" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3098,13 +3097,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3113,14 +3112,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3424,7 +3423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3434,7 +3433,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3442,34 +3441,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3672" topLeftCell="A244" activePane="bottomLeft"/>
+      <pane ySplit="3675" topLeftCell="A244" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
+      <selection pane="bottomLeft" activeCell="I250" sqref="I250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3492,7 +3491,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3512,7 +3511,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3534,7 +3533,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3542,7 +3541,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3555,7 +3554,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -3572,7 +3571,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3626,12 +3625,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.25</v>
+        <v>45.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3653,7 +3652,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>40756</v>
       </c>
@@ -3677,7 +3676,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>40787</v>
       </c>
@@ -3701,7 +3700,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>40817</v>
       </c>
@@ -3725,7 +3724,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>40848</v>
       </c>
@@ -3749,7 +3748,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>60</v>
@@ -3771,7 +3770,7 @@
         <v>40861</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>40878</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>40891</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>44</v>
       </c>
@@ -3819,7 +3818,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>40909</v>
       </c>
@@ -3843,7 +3842,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>40940</v>
       </c>
@@ -3865,7 +3864,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>63</v>
@@ -3885,7 +3884,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>40969</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>41001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>64</v>
@@ -3929,7 +3928,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>41000</v>
       </c>
@@ -3953,7 +3952,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>41030</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>67</v>
@@ -3999,7 +3998,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>41061</v>
       </c>
@@ -4023,7 +4022,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>71</v>
@@ -4045,7 +4044,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>41091</v>
       </c>
@@ -4069,7 +4068,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>41122</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>41127</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>60</v>
@@ -4117,7 +4116,7 @@
         <v>41151</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>73</v>
@@ -4137,7 +4136,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>41153</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>60</v>
@@ -4185,7 +4184,7 @@
         <v>41169</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>62</v>
@@ -4205,7 +4204,7 @@
         <v>41179</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>74</v>
@@ -4225,7 +4224,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>41183</v>
       </c>
@@ -4251,7 +4250,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>60</v>
@@ -4273,7 +4272,7 @@
         <v>41198</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>75</v>
@@ -4293,7 +4292,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>76</v>
@@ -4313,7 +4312,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>41214</v>
       </c>
@@ -4337,7 +4336,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>41244</v>
       </c>
@@ -4363,7 +4362,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>80</v>
@@ -4385,7 +4384,7 @@
         <v>41269</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>81</v>
@@ -4405,7 +4404,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>47</v>
       </c>
@@ -4423,7 +4422,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>41275</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>83</v>
@@ -4473,7 +4472,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>84</v>
@@ -4493,7 +4492,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>41306</v>
       </c>
@@ -4521,7 +4520,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>62</v>
@@ -4541,7 +4540,7 @@
         <v>41333</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>86</v>
@@ -4561,7 +4560,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>41334</v>
       </c>
@@ -4585,7 +4584,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>41365</v>
       </c>
@@ -4609,7 +4608,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>85</v>
@@ -4631,7 +4630,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>41395</v>
       </c>
@@ -4657,7 +4656,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>89</v>
@@ -4677,7 +4676,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>60</v>
@@ -4699,7 +4698,7 @@
         <v>41408</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>41426</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>90</v>
@@ -4745,7 +4744,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>41456</v>
       </c>
@@ -4771,7 +4770,7 @@
         <v>41464</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>98</v>
@@ -4791,7 +4790,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>41487</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>41514</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>99</v>
@@ -4837,7 +4836,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>41518</v>
       </c>
@@ -4863,7 +4862,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>100</v>
@@ -4883,7 +4882,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>101</v>
@@ -4903,7 +4902,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>41548</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>62</v>
@@ -4949,7 +4948,7 @@
         <v>41568</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>102</v>
@@ -4969,7 +4968,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>41579</v>
       </c>
@@ -4993,7 +4992,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>41609</v>
       </c>
@@ -5017,7 +5016,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>56</v>
       </c>
@@ -5035,7 +5034,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>41640</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>96</v>
@@ -5083,7 +5082,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>104</v>
@@ -5107,7 +5106,7 @@
         <v>41667</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>105</v>
@@ -5127,7 +5126,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>85</v>
@@ -5149,7 +5148,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>41671</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>106</v>
@@ -5199,7 +5198,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>41699</v>
       </c>
@@ -5223,7 +5222,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>41730</v>
       </c>
@@ -5249,7 +5248,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>108</v>
@@ -5269,7 +5268,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>85</v>
@@ -5291,7 +5290,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>41760</v>
       </c>
@@ -5315,7 +5314,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>82</v>
@@ -5339,7 +5338,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>119</v>
@@ -5359,7 +5358,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>41791</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>120</v>
@@ -5402,7 +5401,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="48"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>121</v>
@@ -5419,7 +5418,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>41821</v>
       </c>
@@ -5443,7 +5442,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>41852</v>
       </c>
@@ -5467,7 +5466,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>41883</v>
       </c>
@@ -5491,7 +5490,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>125</v>
@@ -5511,7 +5510,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>41913</v>
       </c>
@@ -5535,7 +5534,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>41944</v>
       </c>
@@ -5559,7 +5558,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>128</v>
@@ -5581,7 +5580,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>41974</v>
       </c>
@@ -5605,7 +5604,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>131</v>
@@ -5627,7 +5626,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="47" t="s">
         <v>55</v>
       </c>
@@ -5647,7 +5646,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>42005</v>
       </c>
@@ -5671,7 +5670,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>134</v>
@@ -5693,7 +5692,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>136</v>
@@ -5715,7 +5714,7 @@
         <v>42032</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>85</v>
@@ -5737,7 +5736,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40" t="s">
         <v>139</v>
       </c>
@@ -5761,7 +5760,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>140</v>
@@ -5783,7 +5782,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>142</v>
@@ -5803,7 +5802,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>42064</v>
       </c>
@@ -5825,7 +5824,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>131</v>
@@ -5847,7 +5846,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>42095</v>
       </c>
@@ -5871,7 +5870,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>147</v>
@@ -5893,7 +5892,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>42125</v>
       </c>
@@ -5917,7 +5916,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>149</v>
@@ -5939,7 +5938,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>42156</v>
       </c>
@@ -5963,7 +5962,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>151</v>
@@ -5985,7 +5984,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>42186</v>
       </c>
@@ -6009,7 +6008,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>154</v>
@@ -6031,7 +6030,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>60</v>
@@ -6053,7 +6052,7 @@
         <v>42199</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>42217</v>
       </c>
@@ -6077,7 +6076,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>140</v>
@@ -6099,7 +6098,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>157</v>
@@ -6121,7 +6120,7 @@
         <v>42240</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>42248</v>
       </c>
@@ -6145,7 +6144,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>151</v>
@@ -6167,7 +6166,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>42278</v>
       </c>
@@ -6191,7 +6190,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>140</v>
@@ -6213,7 +6212,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>42309</v>
       </c>
@@ -6237,7 +6236,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>42339</v>
       </c>
@@ -6261,7 +6260,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>131</v>
@@ -6283,7 +6282,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>54</v>
       </c>
@@ -6303,7 +6302,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>42370</v>
       </c>
@@ -6323,7 +6322,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>42401</v>
       </c>
@@ -6343,7 +6342,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>42430</v>
       </c>
@@ -6363,7 +6362,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>42461</v>
       </c>
@@ -6383,7 +6382,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>42491</v>
       </c>
@@ -6403,7 +6402,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>42522</v>
       </c>
@@ -6423,7 +6422,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>42552</v>
       </c>
@@ -6443,7 +6442,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>42583</v>
       </c>
@@ -6463,7 +6462,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>42614</v>
       </c>
@@ -6483,7 +6482,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>42644</v>
       </c>
@@ -6503,7 +6502,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>42675</v>
       </c>
@@ -6523,7 +6522,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>42705</v>
       </c>
@@ -6547,7 +6546,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>53</v>
       </c>
@@ -6569,7 +6568,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>42736</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>42767</v>
       </c>
@@ -6615,7 +6614,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>42795</v>
       </c>
@@ -6635,7 +6634,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>42826</v>
       </c>
@@ -6655,7 +6654,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>42856</v>
       </c>
@@ -6675,7 +6674,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>42887</v>
       </c>
@@ -6695,7 +6694,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>42917</v>
       </c>
@@ -6715,7 +6714,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>42948</v>
       </c>
@@ -6735,7 +6734,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>42979</v>
       </c>
@@ -6755,7 +6754,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>43009</v>
       </c>
@@ -6775,7 +6774,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>43040</v>
       </c>
@@ -6795,7 +6794,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>43070</v>
       </c>
@@ -6819,7 +6818,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>52</v>
       </c>
@@ -6841,7 +6840,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>43101</v>
       </c>
@@ -6867,7 +6866,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>43132</v>
       </c>
@@ -6893,7 +6892,7 @@
         <v>43146</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>43160</v>
       </c>
@@ -6919,7 +6918,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>43191</v>
       </c>
@@ -6945,7 +6944,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>43221</v>
       </c>
@@ -6971,7 +6970,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>43252</v>
       </c>
@@ -6991,7 +6990,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>43282</v>
       </c>
@@ -7011,7 +7010,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>43313</v>
       </c>
@@ -7037,7 +7036,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>43344</v>
       </c>
@@ -7063,7 +7062,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>43374</v>
       </c>
@@ -7089,7 +7088,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>85</v>
@@ -7111,7 +7110,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>43405</v>
       </c>
@@ -7131,7 +7130,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>43435</v>
       </c>
@@ -7155,7 +7154,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>60</v>
@@ -7177,7 +7176,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="47" t="s">
         <v>51</v>
       </c>
@@ -7199,7 +7198,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>43466</v>
       </c>
@@ -7225,7 +7224,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>60</v>
@@ -7247,7 +7246,7 @@
         <v>43494</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>100</v>
@@ -7269,7 +7268,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>43497</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>43525</v>
       </c>
@@ -7321,7 +7320,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>60</v>
@@ -7343,7 +7342,7 @@
         <v>43542</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>60</v>
@@ -7365,7 +7364,7 @@
         <v>43543</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>43556</v>
       </c>
@@ -7391,7 +7390,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>60</v>
@@ -7413,7 +7412,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>43586</v>
       </c>
@@ -7433,7 +7432,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>43617</v>
       </c>
@@ -7453,7 +7452,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>43647</v>
       </c>
@@ -7479,7 +7478,7 @@
         <v>43697</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>43678</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>43704</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>43709</v>
       </c>
@@ -7531,7 +7530,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>85</v>
@@ -7553,7 +7552,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>71</v>
@@ -7575,7 +7574,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>43739</v>
       </c>
@@ -7595,7 +7594,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>43770</v>
       </c>
@@ -7621,7 +7620,7 @@
         <v>43787</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>62</v>
@@ -7641,7 +7640,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>85</v>
@@ -7663,7 +7662,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>43800</v>
       </c>
@@ -7687,7 +7686,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="47" t="s">
         <v>50</v>
       </c>
@@ -7709,7 +7708,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>43831</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>43862</v>
       </c>
@@ -7753,7 +7752,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>43891</v>
       </c>
@@ -7773,7 +7772,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>43922</v>
       </c>
@@ -7793,7 +7792,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>43952</v>
       </c>
@@ -7813,7 +7812,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>43983</v>
       </c>
@@ -7839,7 +7838,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>60</v>
@@ -7861,7 +7860,7 @@
         <v>44011</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>44013</v>
       </c>
@@ -7887,7 +7886,7 @@
         <v>44020</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>85</v>
@@ -7909,7 +7908,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>44044</v>
       </c>
@@ -7935,7 +7934,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>44075</v>
       </c>
@@ -7961,7 +7960,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>44105</v>
       </c>
@@ -7981,7 +7980,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>44136</v>
       </c>
@@ -8001,7 +8000,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>44166</v>
       </c>
@@ -8025,7 +8024,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
         <v>49</v>
       </c>
@@ -8047,7 +8046,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>44197</v>
       </c>
@@ -8067,7 +8066,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>44228</v>
       </c>
@@ -8087,7 +8086,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>44256</v>
       </c>
@@ -8107,7 +8106,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>44287</v>
       </c>
@@ -8127,7 +8126,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>44317</v>
       </c>
@@ -8147,7 +8146,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>44348</v>
       </c>
@@ -8167,7 +8166,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>44378</v>
       </c>
@@ -8187,7 +8186,7 @@
       <c r="J212" s="12"/>
       <c r="K212" s="15"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>44409</v>
       </c>
@@ -8207,7 +8206,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>44440</v>
       </c>
@@ -8227,7 +8226,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>44470</v>
       </c>
@@ -8247,7 +8246,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>44501</v>
       </c>
@@ -8267,7 +8266,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>44531</v>
       </c>
@@ -8291,7 +8290,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>166</v>
@@ -8311,7 +8310,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="47" t="s">
         <v>48</v>
       </c>
@@ -8333,7 +8332,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>44562</v>
       </c>
@@ -8353,7 +8352,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>44593</v>
       </c>
@@ -8373,7 +8372,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>44621</v>
       </c>
@@ -8393,7 +8392,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>44652</v>
       </c>
@@ -8419,7 +8418,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>85</v>
@@ -8441,7 +8440,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>62</v>
@@ -8461,7 +8460,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>85</v>
@@ -8483,7 +8482,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>44682</v>
       </c>
@@ -8503,7 +8502,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>44713</v>
       </c>
@@ -8523,7 +8522,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>44743</v>
       </c>
@@ -8549,7 +8548,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>44774</v>
       </c>
@@ -8575,7 +8574,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>44805</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>44810</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>44835</v>
       </c>
@@ -8627,7 +8626,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>44866</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>44896</v>
       </c>
@@ -8677,7 +8676,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="47" t="s">
         <v>199</v>
       </c>
@@ -8695,7 +8694,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>44927</v>
       </c>
@@ -8721,7 +8720,7 @@
         <v>44956</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>85</v>
@@ -8743,7 +8742,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>71</v>
@@ -8765,7 +8764,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>44958</v>
       </c>
@@ -8791,7 +8790,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>60</v>
@@ -8813,7 +8812,7 @@
         <v>44970</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>60</v>
@@ -8835,7 +8834,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>44986</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>45012</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>45017</v>
       </c>
@@ -8887,7 +8886,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>45047</v>
       </c>
@@ -8913,7 +8912,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>60</v>
@@ -8935,7 +8934,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>85</v>
@@ -8957,7 +8956,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>45078</v>
       </c>
@@ -8983,7 +8982,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>60</v>
@@ -9005,7 +9004,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>85</v>
@@ -9027,11 +9026,13 @@
         <v>210</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>45108</v>
       </c>
-      <c r="B250" s="20"/>
+      <c r="B250" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C250" s="13"/>
       <c r="D250" s="39"/>
       <c r="E250" s="9"/>
@@ -9040,12 +9041,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H250" s="39"/>
+      <c r="H250" s="39">
+        <v>1</v>
+      </c>
       <c r="I250" s="9"/>
       <c r="J250" s="11"/>
-      <c r="K250" s="20"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K250" s="48">
+        <v>45128</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>45139</v>
       </c>
@@ -9063,7 +9068,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>45170</v>
       </c>
@@ -9081,7 +9086,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>45200</v>
       </c>
@@ -9099,7 +9104,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>45231</v>
       </c>
@@ -9117,7 +9122,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>45261</v>
       </c>
@@ -9135,7 +9140,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>45292</v>
       </c>
@@ -9153,7 +9158,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>45323</v>
       </c>
@@ -9171,7 +9176,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="49"/>
       <c r="B258" s="15"/>
       <c r="C258" s="41"/>
@@ -9202,10 +9207,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9228,7 +9233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -9236,21 +9241,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -9263,7 +9268,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9292,7 +9297,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -9318,17 +9323,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -9349,7 +9354,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -9376,7 +9381,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -9402,7 +9407,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9428,7 +9433,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9454,7 +9459,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9480,7 +9485,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9506,7 +9511,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9532,7 +9537,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9558,7 +9563,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9578,7 +9583,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9598,7 +9603,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9618,7 +9623,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9639,7 +9644,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9660,7 +9665,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9681,7 +9686,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9702,7 +9707,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9723,7 +9728,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9744,7 +9749,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9765,7 +9770,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9786,7 +9791,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9807,7 +9812,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9828,7 +9833,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9849,7 +9854,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9870,7 +9875,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9891,7 +9896,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9912,7 +9917,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9933,7 +9938,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9954,7 +9959,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9975,7 +9980,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9996,7 +10001,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10017,7 +10022,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10038,7 +10043,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10047,7 +10052,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10056,7 +10061,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10065,7 +10070,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10074,7 +10079,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10083,7 +10088,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10092,7 +10097,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10101,7 +10106,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10110,7 +10115,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10119,7 +10124,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10128,7 +10133,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10137,7 +10142,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10146,7 +10151,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10155,7 +10160,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10164,7 +10169,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10173,7 +10178,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10182,7 +10187,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10191,7 +10196,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10200,7 +10205,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10209,7 +10214,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10218,7 +10223,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10227,7 +10232,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10236,7 +10241,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10245,7 +10250,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10254,7 +10259,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10263,7 +10268,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10272,7 +10277,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10281,7 +10286,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10290,7 +10295,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10299,7 +10304,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
